--- a/DGA1031/CBIR.xlsx
+++ b/DGA1031/CBIR.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Object recognized" sheetId="7" r:id="rId1"/>
-    <sheet name="Idea" sheetId="9" r:id="rId2"/>
-    <sheet name="sample source code of Obj" sheetId="8" r:id="rId3"/>
-    <sheet name="CBIR" sheetId="1" r:id="rId4"/>
-    <sheet name="Methodology" sheetId="2" r:id="rId5"/>
+    <sheet name="CBIR" sheetId="1" r:id="rId2"/>
+    <sheet name="Open source code " sheetId="8" r:id="rId3"/>
+    <sheet name="Methodology" sheetId="2" r:id="rId4"/>
+    <sheet name="Idea" sheetId="9" r:id="rId5"/>
     <sheet name="Current CBIR Techniques" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -2939,27 +2939,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2985,13 +2964,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3014,6 +3014,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="2747211" cy="1780057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3052,66 +3112,6 @@
         <a:xfrm>
           <a:off x="0" y="1143000"/>
           <a:ext cx="10744200" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300790</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65558</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="2747211" cy="1780057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3631,5868 +3631,5868 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="20" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="20" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="20" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="20" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="20" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="20" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="22" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="23" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="26" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="23" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="23" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="23" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="23" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="23" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="23" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="23" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="23" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="23" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="23" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="23" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="23" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="23" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="23" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="23" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="23" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="23" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="23" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="23" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="23" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="23" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="23" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="23" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="23" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="23" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="23" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="23" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="23" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="23" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="23" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="23" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="23" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="23" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="23" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="23" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="30" t="s">
+      <c r="D125" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D129" s="30" t="s">
+      <c r="D129" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="D130" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="30" t="s">
+      <c r="D132" s="23" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="C133" s="28" t="s">
+      <c r="C133" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D133" s="30" t="s">
+      <c r="D133" s="23" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D134" s="30" t="s">
+      <c r="D134" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D135" s="30" t="s">
+      <c r="D135" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C136" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D136" s="30" t="s">
+      <c r="D136" s="23" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D137" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="C138" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D138" s="30" t="s">
+      <c r="D138" s="23" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="23" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D140" s="30" t="s">
+      <c r="D140" s="23" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A141" s="28" t="s">
+      <c r="A141" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="30" t="s">
+      <c r="D141" s="23" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="23" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D143" s="30" t="s">
+      <c r="D143" s="23" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="23" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="30" t="s">
+      <c r="D145" s="23" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D146" s="30" t="s">
+      <c r="D146" s="23" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
+      <c r="A147" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D147" s="30" t="s">
+      <c r="D147" s="23" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D148" s="23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="28" t="s">
+      <c r="A149" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="30" t="s">
+      <c r="D149" s="23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="23" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D151" s="30" t="s">
+      <c r="D151" s="23" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="28" t="s">
+      <c r="A152" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="D155" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A156" s="28" t="s">
+      <c r="A156" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A157" s="28" t="s">
+      <c r="A157" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="D157" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D159" s="30" t="s">
+      <c r="D159" s="23" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D160" s="30" t="s">
+      <c r="D160" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A161" s="28" t="s">
+      <c r="A161" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D161" s="23" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="28" t="s">
+      <c r="A162" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="D162" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="28" t="s">
+      <c r="A163" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D163" s="30" t="s">
+      <c r="D163" s="23" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
+      <c r="A164" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="C164" s="28" t="s">
+      <c r="C164" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="D164" s="23" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
+      <c r="A165" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="C165" s="28" t="s">
+      <c r="C165" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D165" s="30" t="s">
+      <c r="D165" s="23" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="D166" s="23" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A167" s="28" t="s">
+      <c r="A167" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D167" s="30" t="s">
+      <c r="D167" s="23" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C168" s="28" t="s">
+      <c r="C168" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="D168" s="23" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="D169" s="30" t="s">
+      <c r="D169" s="23" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D170" s="30" t="s">
+      <c r="D170" s="23" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D171" s="30" t="s">
+      <c r="D171" s="23" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D172" s="30" t="s">
+      <c r="D172" s="23" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="28" t="s">
+      <c r="A173" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D173" s="30" t="s">
+      <c r="D173" s="23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="23" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D175" s="30" t="s">
+      <c r="D175" s="23" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A176" s="28" t="s">
+      <c r="A176" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="C176" s="28" t="s">
+      <c r="C176" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="D176" s="23" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="28" t="s">
+      <c r="A177" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C178" s="28" t="s">
+      <c r="C178" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="D178" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="28" t="s">
+      <c r="A179" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="C179" s="28" t="s">
+      <c r="C179" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D179" s="30" t="s">
+      <c r="D179" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="28" t="s">
+      <c r="A180" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C180" s="28" t="s">
+      <c r="C180" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A181" s="28" t="s">
+      <c r="A181" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="C181" s="28" t="s">
+      <c r="C181" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="28" t="s">
+      <c r="A182" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="C182" s="28" t="s">
+      <c r="C182" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="28" t="s">
+      <c r="A183" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A184" s="28" t="s">
+      <c r="A184" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C184" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D184" s="30" t="s">
+      <c r="D184" s="23" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="28" t="s">
+      <c r="A185" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="C185" s="28" t="s">
+      <c r="C185" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="D185" s="23" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A186" s="28" t="s">
+      <c r="A186" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C186" s="28" t="s">
+      <c r="C186" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D186" s="30" t="s">
+      <c r="D186" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="C187" s="28" t="s">
+      <c r="C187" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D187" s="30" t="s">
+      <c r="D187" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A188" s="28" t="s">
+      <c r="A188" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="C188" s="28" t="s">
+      <c r="C188" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="23" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="28" t="s">
+      <c r="A189" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="28" t="s">
+      <c r="C189" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D189" s="30" t="s">
+      <c r="D189" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="30" t="s">
+      <c r="D190" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A191" s="28" t="s">
+      <c r="A191" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D191" s="30" t="s">
+      <c r="D191" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="28" t="s">
+      <c r="A192" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="C192" s="28" t="s">
+      <c r="C192" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="28" t="s">
+      <c r="A193" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="C193" s="28" t="s">
+      <c r="C193" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D193" s="30" t="s">
+      <c r="D193" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A194" s="28" t="s">
+      <c r="A194" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C194" s="28" t="s">
+      <c r="C194" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D194" s="30" t="s">
+      <c r="D194" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A195" s="28" t="s">
+      <c r="A195" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D195" s="30" t="s">
+      <c r="D195" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="C196" s="28" t="s">
+      <c r="C196" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D196" s="30" t="s">
+      <c r="D196" s="23" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197" s="28" t="s">
+      <c r="A197" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="D197" s="30" t="s">
+      <c r="D197" s="23" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A198" s="28" t="s">
+      <c r="A198" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C198" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="D198" s="23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="28" t="s">
+      <c r="A199" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="D199" s="30" t="s">
+      <c r="D199" s="23" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A200" s="28" t="s">
+      <c r="A200" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C200" s="28" t="s">
+      <c r="C200" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D200" s="30" t="s">
+      <c r="D200" s="23" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A201" s="28" t="s">
+      <c r="A201" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C201" s="28" t="s">
+      <c r="C201" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D201" s="30" t="s">
+      <c r="D201" s="23" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="C202" s="28" t="s">
+      <c r="C202" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D202" s="30" t="s">
+      <c r="D202" s="23" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="C203" s="28" t="s">
+      <c r="C203" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D203" s="23" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A204" s="28" t="s">
+      <c r="A204" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="C204" s="28" t="s">
+      <c r="C204" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D204" s="30" t="s">
+      <c r="D204" s="23" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A205" s="28" t="s">
+      <c r="A205" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="C205" s="28" t="s">
+      <c r="C205" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D205" s="30" t="s">
+      <c r="D205" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="28" t="s">
+      <c r="A206" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="C206" s="28" t="s">
+      <c r="C206" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D206" s="30" t="s">
+      <c r="D206" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="28" t="s">
+      <c r="A207" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C207" s="28" t="s">
+      <c r="C207" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D207" s="30" t="s">
+      <c r="D207" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="C208" s="28" t="s">
+      <c r="C208" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D208" s="30" t="s">
+      <c r="D208" s="23" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="28" t="s">
+      <c r="A209" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="C209" s="28" t="s">
+      <c r="C209" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D209" s="30" t="s">
+      <c r="D209" s="23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="C210" s="28" t="s">
+      <c r="C210" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="D210" s="30" t="s">
+      <c r="D210" s="23" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A211" s="28" t="s">
+      <c r="A211" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C211" s="28" t="s">
+      <c r="C211" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D211" s="30" t="s">
+      <c r="D211" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A212" s="28" t="s">
+      <c r="A212" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C212" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D212" s="30" t="s">
+      <c r="D212" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A213" s="28" t="s">
+      <c r="A213" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="C213" s="28" t="s">
+      <c r="C213" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="D213" s="30" t="s">
+      <c r="D213" s="23" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A214" s="28" t="s">
+      <c r="A214" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="C214" s="28" t="s">
+      <c r="C214" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D214" s="30" t="s">
+      <c r="D214" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A215" s="28" t="s">
+      <c r="A215" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C215" s="28" t="s">
+      <c r="C215" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D215" s="30" t="s">
+      <c r="D215" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="C216" s="28" t="s">
+      <c r="C216" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D216" s="30" t="s">
+      <c r="D216" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A217" s="28" t="s">
+      <c r="A217" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="C217" s="28" t="s">
+      <c r="C217" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="D217" s="30" t="s">
+      <c r="D217" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="C218" s="28" t="s">
+      <c r="C218" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D218" s="30" t="s">
+      <c r="D218" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A219" s="28" t="s">
+      <c r="A219" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C219" s="28" t="s">
+      <c r="C219" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D219" s="30" t="s">
+      <c r="D219" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="C220" s="28" t="s">
+      <c r="C220" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D220" s="30" t="s">
+      <c r="D220" s="23" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A221" s="28" t="s">
+      <c r="A221" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="C221" s="28" t="s">
+      <c r="C221" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D221" s="30" t="s">
+      <c r="D221" s="23" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222" s="28" t="s">
+      <c r="A222" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="C222" s="28" t="s">
+      <c r="C222" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="D222" s="30" t="s">
+      <c r="D222" s="23" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A223" s="28" t="s">
+      <c r="A223" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="D223" s="30" t="s">
+      <c r="D223" s="23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A224" s="28" t="s">
+      <c r="A224" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="D224" s="30" t="s">
+      <c r="D224" s="23" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A225" s="28" t="s">
+      <c r="A225" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D225" s="30" t="s">
+      <c r="D225" s="23" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A226" s="28" t="s">
+      <c r="A226" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D226" s="30" t="s">
+      <c r="D226" s="23" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="28" t="s">
+      <c r="A227" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="C227" s="28" t="s">
+      <c r="C227" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D227" s="30" t="s">
+      <c r="D227" s="23" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A228" s="28" t="s">
+      <c r="A228" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="C228" s="28" t="s">
+      <c r="C228" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D228" s="30" t="s">
+      <c r="D228" s="23" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="C229" s="28" t="s">
+      <c r="C229" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D229" s="30" t="s">
+      <c r="D229" s="23" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A230" s="28" t="s">
+      <c r="A230" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="C230" s="28" t="s">
+      <c r="C230" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D230" s="30" t="s">
+      <c r="D230" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A231" s="28" t="s">
+      <c r="A231" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="C231" s="28" t="s">
+      <c r="C231" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D231" s="30" t="s">
+      <c r="D231" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A232" s="28" t="s">
+      <c r="A232" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D232" s="30" t="s">
+      <c r="D232" s="23" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A233" s="28" t="s">
+      <c r="A233" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="C233" s="28" t="s">
+      <c r="C233" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D233" s="30" t="s">
+      <c r="D233" s="23" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="C234" s="28" t="s">
+      <c r="C234" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D234" s="30" t="s">
+      <c r="D234" s="23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A235" s="28" t="s">
+      <c r="A235" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="C235" s="28" t="s">
+      <c r="C235" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D235" s="30" t="s">
+      <c r="D235" s="23" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A236" s="28" t="s">
+      <c r="A236" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="C236" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="D236" s="30" t="s">
+      <c r="D236" s="23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A237" s="28" t="s">
+      <c r="A237" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D237" s="30" t="s">
+      <c r="D237" s="23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A238" s="28" t="s">
+      <c r="A238" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="C238" s="28" t="s">
+      <c r="C238" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D238" s="30" t="s">
+      <c r="D238" s="23" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A239" s="28" t="s">
+      <c r="A239" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D239" s="30" t="s">
+      <c r="D239" s="23" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A240" s="28" t="s">
+      <c r="A240" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="C240" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D240" s="30" t="s">
+      <c r="D240" s="23" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A241" s="28" t="s">
+      <c r="A241" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="C241" s="28" t="s">
+      <c r="C241" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D241" s="30" t="s">
+      <c r="D241" s="23" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A242" s="28" t="s">
+      <c r="A242" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D242" s="30" t="s">
+      <c r="D242" s="23" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243" s="28" t="s">
+      <c r="A243" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="C243" s="28" t="s">
+      <c r="C243" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D243" s="30" t="s">
+      <c r="D243" s="23" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A244" s="28" t="s">
+      <c r="A244" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="C244" s="28" t="s">
+      <c r="C244" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D244" s="30" t="s">
+      <c r="D244" s="23" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A245" s="28" t="s">
+      <c r="A245" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="C245" s="28" t="s">
+      <c r="C245" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D245" s="30" t="s">
+      <c r="D245" s="23" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="C246" s="28" t="s">
+      <c r="C246" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="D246" s="30" t="s">
+      <c r="D246" s="23" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A247" s="28" t="s">
+      <c r="A247" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="C247" s="28" t="s">
+      <c r="C247" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D247" s="30" t="s">
+      <c r="D247" s="23" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A248" s="28" t="s">
+      <c r="A248" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="C248" s="28" t="s">
+      <c r="C248" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D248" s="30" t="s">
+      <c r="D248" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A249" s="28" t="s">
+      <c r="A249" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="C249" s="28" t="s">
+      <c r="C249" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D249" s="30" t="s">
+      <c r="D249" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="C250" s="28" t="s">
+      <c r="C250" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D250" s="30" t="s">
+      <c r="D250" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="28" t="s">
+      <c r="A251" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="C251" s="28" t="s">
+      <c r="C251" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D251" s="30" t="s">
+      <c r="D251" s="23" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A252" s="28" t="s">
+      <c r="A252" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="C252" s="28" t="s">
+      <c r="C252" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D252" s="30" t="s">
+      <c r="D252" s="23" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A253" s="28" t="s">
+      <c r="A253" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D253" s="30" t="s">
+      <c r="D253" s="23" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A254" s="28" t="s">
+      <c r="A254" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="C254" s="28" t="s">
+      <c r="C254" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="D254" s="30" t="s">
+      <c r="D254" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A255" s="28" t="s">
+      <c r="A255" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="C255" s="28" t="s">
+      <c r="C255" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D255" s="30" t="s">
+      <c r="D255" s="23" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A256" s="28" t="s">
+      <c r="A256" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="C256" s="28" t="s">
+      <c r="C256" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D256" s="30" t="s">
+      <c r="D256" s="23" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="C257" s="28" t="s">
+      <c r="C257" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="D257" s="30" t="s">
+      <c r="D257" s="23" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="28" t="s">
+      <c r="A258" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="C258" s="28" t="s">
+      <c r="C258" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D258" s="30" t="s">
+      <c r="D258" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="28" t="s">
+      <c r="A259" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="C259" s="28" t="s">
+      <c r="C259" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D259" s="30" t="s">
+      <c r="D259" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A260" s="28" t="s">
+      <c r="A260" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="C260" s="28" t="s">
+      <c r="C260" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D260" s="30" t="s">
+      <c r="D260" s="23" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A261" s="28" t="s">
+      <c r="A261" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="C261" s="28" t="s">
+      <c r="C261" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="D261" s="30" t="s">
+      <c r="D261" s="23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" s="28" t="s">
+      <c r="A262" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C262" s="28" t="s">
+      <c r="C262" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D262" s="30" t="s">
+      <c r="D262" s="23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="28" t="s">
+      <c r="A263" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="C263" s="28" t="s">
+      <c r="C263" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D263" s="30" t="s">
+      <c r="D263" s="23" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A264" s="28" t="s">
+      <c r="A264" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="C264" s="28" t="s">
+      <c r="C264" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D264" s="30" t="s">
+      <c r="D264" s="23" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A265" s="28" t="s">
+      <c r="A265" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="C265" s="28" t="s">
+      <c r="C265" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D265" s="30" t="s">
+      <c r="D265" s="23" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A266" s="28" t="s">
+      <c r="A266" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D266" s="30" t="s">
+      <c r="D266" s="23" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A267" s="28" t="s">
+      <c r="A267" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D267" s="30" t="s">
+      <c r="D267" s="23" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A268" s="28" t="s">
+      <c r="A268" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C268" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D268" s="30" t="s">
+      <c r="D268" s="23" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A269" s="28" t="s">
+      <c r="A269" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="C269" s="28" t="s">
+      <c r="C269" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D269" s="30" t="s">
+      <c r="D269" s="23" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A270" s="28" t="s">
+      <c r="A270" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="C270" s="28" t="s">
+      <c r="C270" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D270" s="30" t="s">
+      <c r="D270" s="23" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A271" s="28" t="s">
+      <c r="A271" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="C271" s="28" t="s">
+      <c r="C271" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="D271" s="30" t="s">
+      <c r="D271" s="23" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A272" s="28" t="s">
+      <c r="A272" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="C272" s="28" t="s">
+      <c r="C272" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D272" s="30" t="s">
+      <c r="D272" s="23" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="28" t="s">
+      <c r="A273" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="C273" s="28" t="s">
+      <c r="C273" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D273" s="30" t="s">
+      <c r="D273" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A274" s="28" t="s">
+      <c r="A274" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="C274" s="28" t="s">
+      <c r="C274" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D274" s="30" t="s">
+      <c r="D274" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A275" s="28" t="s">
+      <c r="A275" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="C275" s="28" t="s">
+      <c r="C275" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D275" s="30" t="s">
+      <c r="D275" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A276" s="28" t="s">
+      <c r="A276" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="C276" s="28" t="s">
+      <c r="C276" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D276" s="30" t="s">
+      <c r="D276" s="23" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A277" s="28" t="s">
+      <c r="A277" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="C277" s="28" t="s">
+      <c r="C277" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D277" s="30" t="s">
+      <c r="D277" s="23" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A278" s="28" t="s">
+      <c r="A278" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C278" s="28" t="s">
+      <c r="C278" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D278" s="30" t="s">
+      <c r="D278" s="23" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="28" t="s">
+      <c r="A279" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="C279" s="28" t="s">
+      <c r="C279" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="D279" s="30" t="s">
+      <c r="D279" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A280" s="28" t="s">
+      <c r="A280" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="C280" s="28" t="s">
+      <c r="C280" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D280" s="30" t="s">
+      <c r="D280" s="23" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A281" s="28" t="s">
+      <c r="A281" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="C281" s="28" t="s">
+      <c r="C281" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D281" s="30" t="s">
+      <c r="D281" s="23" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A282" s="28" t="s">
+      <c r="A282" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="C282" s="28" t="s">
+      <c r="C282" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="D282" s="30" t="s">
+      <c r="D282" s="23" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A283" s="28" t="s">
+      <c r="A283" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="B283" s="30" t="s">
+      <c r="B283" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="C283" s="28" t="s">
+      <c r="C283" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D283" s="30" t="s">
+      <c r="D283" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="28" t="s">
+      <c r="A284" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="B284" s="30" t="s">
+      <c r="B284" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="C284" s="28" t="s">
+      <c r="C284" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D284" s="30" t="s">
+      <c r="D284" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="28" t="s">
+      <c r="A285" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="C285" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D285" s="30" t="s">
+      <c r="D285" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="28" t="s">
+      <c r="A286" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="C286" s="28" t="s">
+      <c r="C286" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D286" s="30" t="s">
+      <c r="D286" s="23" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A287" s="28" t="s">
+      <c r="A287" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B287" s="30" t="s">
+      <c r="B287" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="C287" s="28" t="s">
+      <c r="C287" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D287" s="30" t="s">
+      <c r="D287" s="23" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A288" s="28" t="s">
+      <c r="A288" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="C288" s="28" t="s">
+      <c r="C288" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D288" s="30" t="s">
+      <c r="D288" s="23" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A289" s="28" t="s">
+      <c r="A289" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="C289" s="28" t="s">
+      <c r="C289" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D289" s="30" t="s">
+      <c r="D289" s="23" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A290" s="28" t="s">
+      <c r="A290" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="B290" s="30" t="s">
+      <c r="B290" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="C290" s="28" t="s">
+      <c r="C290" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="D290" s="23" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="C291" s="28" t="s">
+      <c r="C291" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D291" s="30" t="s">
+      <c r="D291" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A292" s="28" t="s">
+      <c r="A292" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="B292" s="30" t="s">
+      <c r="B292" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="C292" s="28" t="s">
+      <c r="C292" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D292" s="30" t="s">
+      <c r="D292" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A293" s="28" t="s">
+      <c r="A293" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C293" s="28" t="s">
+      <c r="C293" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D293" s="30" t="s">
+      <c r="D293" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A294" s="28" t="s">
+      <c r="A294" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C294" s="28" t="s">
+      <c r="C294" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D294" s="30" t="s">
+      <c r="D294" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A295" s="28" t="s">
+      <c r="A295" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="C295" s="28" t="s">
+      <c r="C295" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D295" s="30" t="s">
+      <c r="D295" s="23" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A296" s="28" t="s">
+      <c r="A296" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="C296" s="28" t="s">
+      <c r="C296" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="D296" s="30" t="s">
+      <c r="D296" s="23" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A297" s="28" t="s">
+      <c r="A297" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="B297" s="30" t="s">
+      <c r="B297" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="C297" s="28" t="s">
+      <c r="C297" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D297" s="30" t="s">
+      <c r="D297" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A298" s="28" t="s">
+      <c r="A298" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="B298" s="30" t="s">
+      <c r="B298" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="C298" s="28" t="s">
+      <c r="C298" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D298" s="30" t="s">
+      <c r="D298" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="28" t="s">
+      <c r="A299" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="B299" s="30" t="s">
+      <c r="B299" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="C299" s="28" t="s">
+      <c r="C299" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D299" s="30" t="s">
+      <c r="D299" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A300" s="28" t="s">
+      <c r="A300" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="B300" s="30" t="s">
+      <c r="B300" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="C300" s="28" t="s">
+      <c r="C300" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="D300" s="30" t="s">
+      <c r="D300" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A301" s="28" t="s">
+      <c r="A301" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="C301" s="28" t="s">
+      <c r="C301" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D301" s="30" t="s">
+      <c r="D301" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A302" s="28" t="s">
+      <c r="A302" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="C302" s="28" t="s">
+      <c r="C302" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D302" s="30" t="s">
+      <c r="D302" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A303" s="28" t="s">
+      <c r="A303" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="B303" s="30" t="s">
+      <c r="B303" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="C303" s="28" t="s">
+      <c r="C303" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D303" s="30" t="s">
+      <c r="D303" s="23" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A304" s="28" t="s">
+      <c r="A304" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C304" s="28" t="s">
+      <c r="C304" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="D304" s="30" t="s">
+      <c r="D304" s="23" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A305" s="28" t="s">
+      <c r="A305" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C305" s="28" t="s">
+      <c r="C305" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D305" s="30" t="s">
+      <c r="D305" s="23" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A306" s="28" t="s">
+      <c r="A306" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="C306" s="28" t="s">
+      <c r="C306" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D306" s="30" t="s">
+      <c r="D306" s="23" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A307" s="28" t="s">
+      <c r="A307" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="C307" s="28" t="s">
+      <c r="C307" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D307" s="30" t="s">
+      <c r="D307" s="23" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A308" s="28" t="s">
+      <c r="A308" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="B308" s="30" t="s">
+      <c r="B308" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="C308" s="28" t="s">
+      <c r="C308" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D308" s="30" t="s">
+      <c r="D308" s="23" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A309" s="28" t="s">
+      <c r="A309" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B309" s="30" t="s">
+      <c r="B309" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="C309" s="28" t="s">
+      <c r="C309" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D309" s="30" t="s">
+      <c r="D309" s="23" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A310" s="28" t="s">
+      <c r="A310" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="C310" s="28" t="s">
+      <c r="C310" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D310" s="30" t="s">
+      <c r="D310" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A311" s="28" t="s">
+      <c r="A311" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B311" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="C311" s="28" t="s">
+      <c r="C311" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D311" s="30" t="s">
+      <c r="D311" s="23" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A312" s="28" t="s">
+      <c r="A312" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B312" s="30" t="s">
+      <c r="B312" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="C312" s="28" t="s">
+      <c r="C312" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D312" s="30" t="s">
+      <c r="D312" s="23" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A313" s="28" t="s">
+      <c r="A313" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="B313" s="30" t="s">
+      <c r="B313" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="C313" s="28" t="s">
+      <c r="C313" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D313" s="30" t="s">
+      <c r="D313" s="23" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A314" s="28" t="s">
+      <c r="A314" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="B314" s="30" t="s">
+      <c r="B314" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="C314" s="28" t="s">
+      <c r="C314" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D314" s="30" t="s">
+      <c r="D314" s="23" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A315" s="28" t="s">
+      <c r="A315" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="B315" s="30" t="s">
+      <c r="B315" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="C315" s="28" t="s">
+      <c r="C315" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D315" s="30" t="s">
+      <c r="D315" s="23" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A316" s="28" t="s">
+      <c r="A316" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="B316" s="30" t="s">
+      <c r="B316" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="C316" s="28" t="s">
+      <c r="C316" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D316" s="30" t="s">
+      <c r="D316" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A317" s="28" t="s">
+      <c r="A317" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="B317" s="30" t="s">
+      <c r="B317" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="C317" s="28" t="s">
+      <c r="C317" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D317" s="30" t="s">
+      <c r="D317" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A318" s="28" t="s">
+      <c r="A318" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B318" s="30" t="s">
+      <c r="B318" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C318" s="28" t="s">
+      <c r="C318" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D318" s="30" t="s">
+      <c r="D318" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A319" s="28" t="s">
+      <c r="A319" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B319" s="30" t="s">
+      <c r="B319" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C319" s="28" t="s">
+      <c r="C319" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D319" s="30" t="s">
+      <c r="D319" s="23" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A320" s="28" t="s">
+      <c r="A320" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B320" s="30" t="s">
+      <c r="B320" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="C320" s="28" t="s">
+      <c r="C320" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D320" s="30" t="s">
+      <c r="D320" s="23" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A321" s="28" t="s">
+      <c r="A321" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="B321" s="30" t="s">
+      <c r="B321" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="C321" s="28" t="s">
+      <c r="C321" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="D321" s="30" t="s">
+      <c r="D321" s="23" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A322" s="28" t="s">
+      <c r="A322" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="B322" s="30" t="s">
+      <c r="B322" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="C322" s="28" t="s">
+      <c r="C322" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D322" s="30" t="s">
+      <c r="D322" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A323" s="28" t="s">
+      <c r="A323" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="B323" s="30" t="s">
+      <c r="B323" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="C323" s="28" t="s">
+      <c r="C323" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D323" s="30" t="s">
+      <c r="D323" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A324" s="28" t="s">
+      <c r="A324" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="C324" s="28" t="s">
+      <c r="C324" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D324" s="30" t="s">
+      <c r="D324" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A325" s="28" t="s">
+      <c r="A325" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="B325" s="30" t="s">
+      <c r="B325" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="C325" s="28" t="s">
+      <c r="C325" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="D325" s="30" t="s">
+      <c r="D325" s="23" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A326" s="28" t="s">
+      <c r="A326" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="B326" s="30" t="s">
+      <c r="B326" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="C326" s="28" t="s">
+      <c r="C326" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D326" s="30" t="s">
+      <c r="D326" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A327" s="28" t="s">
+      <c r="A327" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="C327" s="28" t="s">
+      <c r="C327" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D327" s="30" t="s">
+      <c r="D327" s="23" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A328" s="28" t="s">
+      <c r="A328" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B328" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="C328" s="28" t="s">
+      <c r="C328" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D328" s="30" t="s">
+      <c r="D328" s="23" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A329" s="28" t="s">
+      <c r="A329" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C329" s="28" t="s">
+      <c r="C329" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="D329" s="30" t="s">
+      <c r="D329" s="23" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B330" s="30" t="s">
+      <c r="B330" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C330" s="28" t="s">
+      <c r="C330" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D330" s="30" t="s">
+      <c r="D330" s="23" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A331" s="28" t="s">
+      <c r="A331" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="B331" s="30" t="s">
+      <c r="B331" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="C331" s="28" t="s">
+      <c r="C331" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D331" s="30" t="s">
+      <c r="D331" s="23" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A332" s="28" t="s">
+      <c r="A332" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="B332" s="30" t="s">
+      <c r="B332" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="C332" s="28" t="s">
+      <c r="C332" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D332" s="30" t="s">
+      <c r="D332" s="23" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A333" s="28" t="s">
+      <c r="A333" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="C333" s="28" t="s">
+      <c r="C333" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D333" s="30" t="s">
+      <c r="D333" s="23" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A334" s="28" t="s">
+      <c r="A334" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B334" s="30" t="s">
+      <c r="B334" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="C334" s="28" t="s">
+      <c r="C334" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D334" s="30" t="s">
+      <c r="D334" s="23" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A335" s="28" t="s">
+      <c r="A335" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="B335" s="30" t="s">
+      <c r="B335" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="C335" s="28" t="s">
+      <c r="C335" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D335" s="30" t="s">
+      <c r="D335" s="23" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A336" s="28" t="s">
+      <c r="A336" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="B336" s="30" t="s">
+      <c r="B336" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="C336" s="28" t="s">
+      <c r="C336" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D336" s="30" t="s">
+      <c r="D336" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A337" s="28" t="s">
+      <c r="A337" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="B337" s="30" t="s">
+      <c r="B337" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="C337" s="28" t="s">
+      <c r="C337" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D337" s="30" t="s">
+      <c r="D337" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A338" s="28" t="s">
+      <c r="A338" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="B338" s="30" t="s">
+      <c r="B338" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="C338" s="28" t="s">
+      <c r="C338" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D338" s="30" t="s">
+      <c r="D338" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A339" s="28" t="s">
+      <c r="A339" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="C339" s="28" t="s">
+      <c r="C339" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D339" s="30" t="s">
+      <c r="D339" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A340" s="28" t="s">
+      <c r="A340" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="B340" s="30" t="s">
+      <c r="B340" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="C340" s="28" t="s">
+      <c r="C340" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D340" s="30" t="s">
+      <c r="D340" s="23" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A341" s="28" t="s">
+      <c r="A341" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B341" s="30" t="s">
+      <c r="B341" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="C341" s="28" t="s">
+      <c r="C341" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D341" s="30" t="s">
+      <c r="D341" s="23" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A342" s="28" t="s">
+      <c r="A342" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="B342" s="30" t="s">
+      <c r="B342" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="C342" s="28" t="s">
+      <c r="C342" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D342" s="30" t="s">
+      <c r="D342" s="23" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A343" s="28" t="s">
+      <c r="A343" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B343" s="30" t="s">
+      <c r="B343" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="C343" s="28" t="s">
+      <c r="C343" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D343" s="30" t="s">
+      <c r="D343" s="23" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A344" s="28" t="s">
+      <c r="A344" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="B344" s="30" t="s">
+      <c r="B344" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="C344" s="28" t="s">
+      <c r="C344" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D344" s="30" t="s">
+      <c r="D344" s="23" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A345" s="28" t="s">
+      <c r="A345" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="B345" s="30" t="s">
+      <c r="B345" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="C345" s="28" t="s">
+      <c r="C345" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D345" s="30" t="s">
+      <c r="D345" s="23" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A346" s="28" t="s">
+      <c r="A346" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="B346" s="30" t="s">
+      <c r="B346" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="C346" s="28" t="s">
+      <c r="C346" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D346" s="30" t="s">
+      <c r="D346" s="23" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A347" s="28" t="s">
+      <c r="A347" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="B347" s="30" t="s">
+      <c r="B347" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="C347" s="28" t="s">
+      <c r="C347" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D347" s="30" t="s">
+      <c r="D347" s="23" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A348" s="28" t="s">
+      <c r="A348" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B348" s="30" t="s">
+      <c r="B348" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="C348" s="28" t="s">
+      <c r="C348" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D348" s="30" t="s">
+      <c r="D348" s="23" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A349" s="28" t="s">
+      <c r="A349" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B349" s="30" t="s">
+      <c r="B349" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="C349" s="28" t="s">
+      <c r="C349" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D349" s="30" t="s">
+      <c r="D349" s="23" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A350" s="28" t="s">
+      <c r="A350" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="B350" s="30" t="s">
+      <c r="B350" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="C350" s="28" t="s">
+      <c r="C350" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D350" s="30" t="s">
+      <c r="D350" s="23" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A351" s="28" t="s">
+      <c r="A351" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="B351" s="30" t="s">
+      <c r="B351" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="C351" s="28" t="s">
+      <c r="C351" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D351" s="30" t="s">
+      <c r="D351" s="23" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A352" s="28" t="s">
+      <c r="A352" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="B352" s="30" t="s">
+      <c r="B352" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="C352" s="28" t="s">
+      <c r="C352" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="D352" s="30" t="s">
+      <c r="D352" s="23" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A353" s="28" t="s">
+      <c r="A353" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="B353" s="30" t="s">
+      <c r="B353" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="C353" s="28" t="s">
+      <c r="C353" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D353" s="30" t="s">
+      <c r="D353" s="23" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A354" s="28" t="s">
+      <c r="A354" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="B354" s="30" t="s">
+      <c r="B354" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="C354" s="28" t="s">
+      <c r="C354" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D354" s="30" t="s">
+      <c r="D354" s="23" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="28" t="s">
+      <c r="A355" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="B355" s="30" t="s">
+      <c r="B355" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="C355" s="28" t="s">
+      <c r="C355" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D355" s="30" t="s">
+      <c r="D355" s="23" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A356" s="28" t="s">
+      <c r="A356" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="B356" s="30" t="s">
+      <c r="B356" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="C356" s="28" t="s">
+      <c r="C356" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D356" s="30" t="s">
+      <c r="D356" s="23" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A357" s="28" t="s">
+      <c r="A357" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="B357" s="30" t="s">
+      <c r="B357" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="C357" s="28" t="s">
+      <c r="C357" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="D357" s="30" t="s">
+      <c r="D357" s="23" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A358" s="28" t="s">
+      <c r="A358" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="B358" s="30" t="s">
+      <c r="B358" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="C358" s="28" t="s">
+      <c r="C358" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D358" s="30" t="s">
+      <c r="D358" s="23" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A359" s="28" t="s">
+      <c r="A359" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="B359" s="30" t="s">
+      <c r="B359" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="C359" s="28" t="s">
+      <c r="C359" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D359" s="30" t="s">
+      <c r="D359" s="23" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A360" s="28" t="s">
+      <c r="A360" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="B360" s="30" t="s">
+      <c r="B360" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="C360" s="28" t="s">
+      <c r="C360" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D360" s="30" t="s">
+      <c r="D360" s="23" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A361" s="28" t="s">
+      <c r="A361" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="B361" s="30" t="s">
+      <c r="B361" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="C361" s="28" t="s">
+      <c r="C361" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D361" s="30" t="s">
+      <c r="D361" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A362" s="28" t="s">
+      <c r="A362" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="B362" s="30" t="s">
+      <c r="B362" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="C362" s="28" t="s">
+      <c r="C362" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D362" s="30" t="s">
+      <c r="D362" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A363" s="28" t="s">
+      <c r="A363" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="B363" s="30" t="s">
+      <c r="B363" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="C363" s="28" t="s">
+      <c r="C363" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D363" s="30" t="s">
+      <c r="D363" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A364" s="28" t="s">
+      <c r="A364" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="B364" s="30" t="s">
+      <c r="B364" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="C364" s="28" t="s">
+      <c r="C364" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D364" s="30" t="s">
+      <c r="D364" s="23" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A365" s="28" t="s">
+      <c r="A365" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="B365" s="30" t="s">
+      <c r="B365" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="C365" s="28" t="s">
+      <c r="C365" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D365" s="30" t="s">
+      <c r="D365" s="23" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A366" s="28" t="s">
+      <c r="A366" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B366" s="30" t="s">
+      <c r="B366" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="C366" s="28" t="s">
+      <c r="C366" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D366" s="30" t="s">
+      <c r="D366" s="23" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A367" s="28" t="s">
+      <c r="A367" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="B367" s="30" t="s">
+      <c r="B367" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="C367" s="28" t="s">
+      <c r="C367" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D367" s="30" t="s">
+      <c r="D367" s="23" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A368" s="28" t="s">
+      <c r="A368" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B368" s="30" t="s">
+      <c r="B368" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="C368" s="28" t="s">
+      <c r="C368" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D368" s="30" t="s">
+      <c r="D368" s="23" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A369" s="28" t="s">
+      <c r="A369" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="B369" s="30" t="s">
+      <c r="B369" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="C369" s="28" t="s">
+      <c r="C369" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D369" s="30" t="s">
+      <c r="D369" s="23" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A370" s="28" t="s">
+      <c r="A370" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="B370" s="30" t="s">
+      <c r="B370" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="C370" s="28" t="s">
+      <c r="C370" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D370" s="30" t="s">
+      <c r="D370" s="23" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A371" s="28" t="s">
+      <c r="A371" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="B371" s="30" t="s">
+      <c r="B371" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="C371" s="28" t="s">
+      <c r="C371" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D371" s="30" t="s">
+      <c r="D371" s="23" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A372" s="28" t="s">
+      <c r="A372" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="B372" s="30" t="s">
+      <c r="B372" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="C372" s="28" t="s">
+      <c r="C372" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D372" s="30" t="s">
+      <c r="D372" s="23" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A373" s="28" t="s">
+      <c r="A373" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B373" s="30" t="s">
+      <c r="B373" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="C373" s="28" t="s">
+      <c r="C373" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D373" s="30" t="s">
+      <c r="D373" s="23" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A374" s="28" t="s">
+      <c r="A374" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B374" s="30" t="s">
+      <c r="B374" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="C374" s="28" t="s">
+      <c r="C374" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D374" s="30" t="s">
+      <c r="D374" s="23" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A375" s="28" t="s">
+      <c r="A375" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="B375" s="30" t="s">
+      <c r="B375" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="C375" s="28" t="s">
+      <c r="C375" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D375" s="30" t="s">
+      <c r="D375" s="23" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A376" s="28" t="s">
+      <c r="A376" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="B376" s="30" t="s">
+      <c r="B376" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="C376" s="28" t="s">
+      <c r="C376" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D376" s="30" t="s">
+      <c r="D376" s="23" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A377" s="28" t="s">
+      <c r="A377" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="B377" s="30" t="s">
+      <c r="B377" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="C377" s="28" t="s">
+      <c r="C377" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="D377" s="30" t="s">
+      <c r="D377" s="23" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A378" s="28" t="s">
+      <c r="A378" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="B378" s="30" t="s">
+      <c r="B378" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="C378" s="28" t="s">
+      <c r="C378" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D378" s="30" t="s">
+      <c r="D378" s="23" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A379" s="28" t="s">
+      <c r="A379" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="B379" s="30" t="s">
+      <c r="B379" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="C379" s="28" t="s">
+      <c r="C379" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D379" s="30" t="s">
+      <c r="D379" s="23" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A380" s="28" t="s">
+      <c r="A380" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="B380" s="30" t="s">
+      <c r="B380" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="C380" s="28" t="s">
+      <c r="C380" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D380" s="30" t="s">
+      <c r="D380" s="23" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A381" s="28" t="s">
+      <c r="A381" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="B381" s="30" t="s">
+      <c r="B381" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="C381" s="28" t="s">
+      <c r="C381" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D381" s="30" t="s">
+      <c r="D381" s="23" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A382" s="28" t="s">
+      <c r="A382" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="B382" s="30" t="s">
+      <c r="B382" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="C382" s="28" t="s">
+      <c r="C382" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="D382" s="30" t="s">
+      <c r="D382" s="23" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A383" s="28" t="s">
+      <c r="A383" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="B383" s="30" t="s">
+      <c r="B383" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="C383" s="28" t="s">
+      <c r="C383" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D383" s="30" t="s">
+      <c r="D383" s="23" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A384" s="28" t="s">
+      <c r="A384" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="B384" s="30" t="s">
+      <c r="B384" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="C384" s="28" t="s">
+      <c r="C384" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D384" s="30" t="s">
+      <c r="D384" s="23" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A385" s="28" t="s">
+      <c r="A385" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B385" s="30" t="s">
+      <c r="B385" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="C385" s="28" t="s">
+      <c r="C385" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D385" s="30" t="s">
+      <c r="D385" s="23" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A386" s="28" t="s">
+      <c r="A386" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="B386" s="30" t="s">
+      <c r="B386" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="C386" s="28" t="s">
+      <c r="C386" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D386" s="30" t="s">
+      <c r="D386" s="23" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A387" s="28" t="s">
+      <c r="A387" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="B387" s="30" t="s">
+      <c r="B387" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="C387" s="28" t="s">
+      <c r="C387" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D387" s="30" t="s">
+      <c r="D387" s="23" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A388" s="28" t="s">
+      <c r="A388" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="B388" s="30" t="s">
+      <c r="B388" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="C388" s="28" t="s">
+      <c r="C388" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="D388" s="30" t="s">
+      <c r="D388" s="23" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A389" s="28" t="s">
+      <c r="A389" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="B389" s="30" t="s">
+      <c r="B389" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="C389" s="28" t="s">
+      <c r="C389" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D389" s="30" t="s">
+      <c r="D389" s="23" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A390" s="28" t="s">
+      <c r="A390" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="B390" s="30" t="s">
+      <c r="B390" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="C390" s="28" t="s">
+      <c r="C390" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D390" s="30" t="s">
+      <c r="D390" s="23" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A391" s="28" t="s">
+      <c r="A391" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B391" s="30" t="s">
+      <c r="B391" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C391" s="28" t="s">
+      <c r="C391" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D391" s="30" t="s">
+      <c r="D391" s="23" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A392" s="28" t="s">
+      <c r="A392" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="B392" s="30" t="s">
+      <c r="B392" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="C392" s="28" t="s">
+      <c r="C392" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D392" s="30" t="s">
+      <c r="D392" s="23" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A393" s="28" t="s">
+      <c r="A393" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="B393" s="30" t="s">
+      <c r="B393" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C393" s="28" t="s">
+      <c r="C393" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D393" s="30" t="s">
+      <c r="D393" s="23" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A394" s="28" t="s">
+      <c r="A394" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="B394" s="30" t="s">
+      <c r="B394" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="C394" s="28" t="s">
+      <c r="C394" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D394" s="30" t="s">
+      <c r="D394" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A395" s="28" t="s">
+      <c r="A395" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="B395" s="30" t="s">
+      <c r="B395" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="C395" s="28" t="s">
+      <c r="C395" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D395" s="30" t="s">
+      <c r="D395" s="23" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A396" s="28" t="s">
+      <c r="A396" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="B396" s="30" t="s">
+      <c r="B396" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="C396" s="28" t="s">
+      <c r="C396" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D396" s="30" t="s">
+      <c r="D396" s="23" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A397" s="28" t="s">
+      <c r="A397" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="B397" s="30" t="s">
+      <c r="B397" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="C397" s="28" t="s">
+      <c r="C397" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D397" s="30" t="s">
+      <c r="D397" s="23" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A398" s="31" t="s">
+      <c r="A398" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="B398" s="30" t="s">
+      <c r="B398" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="C398" s="31" t="s">
+      <c r="C398" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="D398" s="32" t="s">
+      <c r="D398" s="26" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A399" s="31"/>
-      <c r="B399" s="30" t="s">
+      <c r="A399" s="25"/>
+      <c r="B399" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C399" s="31"/>
-      <c r="D399" s="32"/>
+      <c r="C399" s="25"/>
+      <c r="D399" s="26"/>
     </row>
     <row r="400" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A400" s="28" t="s">
+      <c r="A400" s="21" t="s">
         <v>826</v>
       </c>
-      <c r="B400" s="30" t="s">
+      <c r="B400" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="C400" s="28" t="s">
+      <c r="C400" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D400" s="30" t="s">
+      <c r="D400" s="23" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A401" s="28" t="s">
+      <c r="A401" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="B401" s="30" t="s">
+      <c r="B401" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C401" s="28" t="s">
+      <c r="C401" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D401" s="30" t="s">
+      <c r="D401" s="23" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A402" s="28" t="s">
+      <c r="A402" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="B402" s="30" t="s">
+      <c r="B402" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="C402" s="28" t="s">
+      <c r="C402" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D402" s="30" t="s">
+      <c r="D402" s="23" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A403" s="28" t="s">
+      <c r="A403" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="B403" s="30" t="s">
+      <c r="B403" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="C403" s="28" t="s">
+      <c r="C403" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D403" s="30" t="s">
+      <c r="D403" s="23" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A404" s="28" t="s">
+      <c r="A404" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="B404" s="30" t="s">
+      <c r="B404" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="C404" s="28" t="s">
+      <c r="C404" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D404" s="30" t="s">
+      <c r="D404" s="23" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A405" s="28" t="s">
+      <c r="A405" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="B405" s="30" t="s">
+      <c r="B405" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="C405" s="28" t="s">
+      <c r="C405" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D405" s="30" t="s">
+      <c r="D405" s="23" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A406" s="28" t="s">
+      <c r="A406" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B406" s="30" t="s">
+      <c r="B406" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="C406" s="28" t="s">
+      <c r="C406" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D406" s="30" t="s">
+      <c r="D406" s="23" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A407" s="28" t="s">
+      <c r="A407" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="B407" s="30" t="s">
+      <c r="B407" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="C407" s="28" t="s">
+      <c r="C407" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D407" s="30" t="s">
+      <c r="D407" s="23" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A408" s="28" t="s">
+      <c r="A408" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="B408" s="30" t="s">
+      <c r="B408" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="C408" s="28" t="s">
+      <c r="C408" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D408" s="30" t="s">
+      <c r="D408" s="23" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A409" s="28" t="s">
+      <c r="A409" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="B409" s="30" t="s">
+      <c r="B409" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="C409" s="28" t="s">
+      <c r="C409" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="D409" s="30" t="s">
+      <c r="D409" s="23" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A410" s="28" t="s">
+      <c r="A410" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="B410" s="30" t="s">
+      <c r="B410" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="C410" s="28" t="s">
+      <c r="C410" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D410" s="30" t="s">
+      <c r="D410" s="23" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A411" s="28" t="s">
+      <c r="A411" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="B411" s="30" t="s">
+      <c r="B411" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="C411" s="28" t="s">
+      <c r="C411" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D411" s="30" t="s">
+      <c r="D411" s="23" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A412" s="28" t="s">
+      <c r="A412" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B412" s="30" t="s">
+      <c r="B412" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C412" s="28" t="s">
+      <c r="C412" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D412" s="30" t="s">
+      <c r="D412" s="23" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A413" s="28" t="s">
+      <c r="A413" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="B413" s="30" t="s">
+      <c r="B413" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="C413" s="28" t="s">
+      <c r="C413" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D413" s="30" t="s">
+      <c r="D413" s="23" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A414" s="28" t="s">
+      <c r="A414" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="B414" s="30" t="s">
+      <c r="B414" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C414" s="28" t="s">
+      <c r="C414" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D414" s="30" t="s">
+      <c r="D414" s="23" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A415" s="28" t="s">
+      <c r="A415" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="B415" s="30" t="s">
+      <c r="B415" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="C415" s="28" t="s">
+      <c r="C415" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D415" s="30" t="s">
+      <c r="D415" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A416" s="28" t="s">
+      <c r="A416" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="B416" s="30" t="s">
+      <c r="B416" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="C416" s="28" t="s">
+      <c r="C416" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D416" s="30" t="s">
+      <c r="D416" s="23" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A417" s="28" t="s">
+      <c r="A417" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="B417" s="30" t="s">
+      <c r="B417" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="C417" s="28" t="s">
+      <c r="C417" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D417" s="30" t="s">
+      <c r="D417" s="23" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A418" s="28" t="s">
+      <c r="A418" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="B418" s="30" t="s">
+      <c r="B418" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="C418" s="28" t="s">
+      <c r="C418" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D418" s="30" t="s">
+      <c r="D418" s="23" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A419" s="31" t="s">
+      <c r="A419" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="B419" s="30" t="s">
+      <c r="B419" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="C419" s="31" t="s">
+      <c r="C419" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="D419" s="32" t="s">
+      <c r="D419" s="26" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A420" s="31"/>
-      <c r="B420" s="30" t="s">
+      <c r="A420" s="25"/>
+      <c r="B420" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C420" s="31"/>
-      <c r="D420" s="32"/>
+      <c r="C420" s="25"/>
+      <c r="D420" s="26"/>
     </row>
     <row r="421" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A421" s="28" t="s">
+      <c r="A421" s="21" t="s">
         <v>826</v>
       </c>
-      <c r="B421" s="30" t="s">
+      <c r="B421" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="C421" s="28" t="s">
+      <c r="C421" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D421" s="30" t="s">
+      <c r="D421" s="23" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A422" s="28" t="s">
+      <c r="A422" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="B422" s="30" t="s">
+      <c r="B422" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C422" s="28" t="s">
+      <c r="C422" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D422" s="30" t="s">
+      <c r="D422" s="23" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A423" s="28" t="s">
+      <c r="A423" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="B423" s="30" t="s">
+      <c r="B423" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="C423" s="28" t="s">
+      <c r="C423" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D423" s="30" t="s">
+      <c r="D423" s="23" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A424" s="28" t="s">
+      <c r="A424" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="B424" s="30" t="s">
+      <c r="B424" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="C424" s="28" t="s">
+      <c r="C424" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D424" s="30" t="s">
+      <c r="D424" s="23" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A425" s="28" t="s">
+      <c r="A425" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="B425" s="30" t="s">
+      <c r="B425" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="C425" s="28" t="s">
+      <c r="C425" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D425" s="30" t="s">
+      <c r="D425" s="23" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A426" s="28" t="s">
+      <c r="A426" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="B426" s="30" t="s">
+      <c r="B426" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="C426" s="28" t="s">
+      <c r="C426" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D426" s="30" t="s">
+      <c r="D426" s="23" t="s">
         <v>843</v>
       </c>
     </row>
@@ -10346,99 +10346,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10453,15 +10360,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -10505,7 +10412,7 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10528,7 +10435,7 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10549,7 +10456,7 @@
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10570,7 +10477,7 @@
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10591,7 +10498,7 @@
       <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10614,7 +10521,7 @@
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10637,7 +10544,7 @@
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10658,7 +10565,7 @@
       <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10681,7 +10588,7 @@
       <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10702,7 +10609,7 @@
       <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10725,7 +10632,7 @@
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10746,7 +10653,7 @@
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10769,7 +10676,7 @@
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10792,7 +10699,7 @@
       <c r="F17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10815,7 +10722,7 @@
       <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10838,7 +10745,7 @@
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10861,7 +10768,7 @@
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10884,7 +10791,7 @@
       <c r="F21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10907,7 +10814,7 @@
       <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10928,7 +10835,7 @@
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10951,7 +10858,7 @@
       <c r="F24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10974,7 +10881,7 @@
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10995,7 +10902,7 @@
       <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11016,7 +10923,7 @@
       <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11039,20 +10946,20 @@
       <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -11073,7 +10980,7 @@
       <c r="F30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11096,7 +11003,7 @@
       <c r="F31" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11117,7 +11024,7 @@
       <c r="F32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11140,7 +11047,7 @@
       <c r="F33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11161,7 +11068,7 @@
       <c r="F34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11184,7 +11091,7 @@
       <c r="F35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11207,7 +11114,7 @@
       <c r="F36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11228,7 +11135,7 @@
       <c r="F37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11251,7 +11158,7 @@
       <c r="F38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11274,7 +11181,7 @@
       <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11297,7 +11204,7 @@
       <c r="F40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11318,7 +11225,7 @@
       <c r="F41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11339,7 +11246,7 @@
       <c r="F42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11362,7 +11269,7 @@
       <c r="F43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11383,7 +11290,7 @@
       <c r="F44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11406,7 +11313,7 @@
       <c r="F45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11429,7 +11336,7 @@
       <c r="F46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11452,7 +11359,7 @@
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11473,7 +11380,7 @@
       <c r="F48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11496,7 +11403,7 @@
       <c r="F49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11519,7 +11426,7 @@
       <c r="F50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11542,7 +11449,7 @@
       <c r="F51" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11563,7 +11470,7 @@
       <c r="F52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11584,7 +11491,7 @@
       <c r="F53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11605,7 +11512,7 @@
       <c r="F54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11628,7 +11535,7 @@
       <c r="F55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11649,7 +11556,7 @@
       <c r="F56" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11672,7 +11579,7 @@
       <c r="F57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11693,7 +11600,7 @@
       <c r="F58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11714,7 +11621,7 @@
       <c r="F59" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11735,7 +11642,7 @@
       <c r="F60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11826,7 +11733,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
@@ -11852,22 +11837,22 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -11875,148 +11860,148 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
     </row>
     <row r="16" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12035,6 +12020,21 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
